--- a/translations/Turkish.xlsx
+++ b/translations/Turkish.xlsx
@@ -1236,7 +1236,7 @@
 Lütfen bize ___'da ulaşın</t>
   </si>
   <si>
-    <t>Samsung için Kumanda - ŞİMDİ ÜCRETSİZ</t>
+    <t>____ için Kumanda - ŞİMDİ ÜCRETSİZ</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1719,7 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
